--- a/data/trans_dic/P10_1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P10_1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene acceso a internet con datos de teléfono móvil</t>
+          <t>Población que tiene acceso a internet con datos de teléfono móvil (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>65,19%</t>
+          <t>75,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>69,86%</t>
+          <t>75,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>60,57%</t>
+          <t>72,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>66,06%</t>
+          <t>72,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,57%</t>
+          <t>74,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>67,73%</t>
+          <t>73,57%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,92; 71,38</t>
+          <t>65,77; 83,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,22; 78,09</t>
+          <t>67,23; 82,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,53; 65,99</t>
+          <t>62,96; 80,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59,75; 72,19</t>
+          <t>65,15; 79,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>58,27; 66,37</t>
+          <t>67,74; 80,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>62,96; 72,56</t>
+          <t>68,07; 78,76</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>90,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>89,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>90,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>88,34%</t>
+          <t>90,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>90,07%</t>
+          <t>90,25%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,5; 90,23</t>
+          <t>86,48; 93,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,85; 91,78</t>
+          <t>85,66; 92,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,57; 91,15</t>
+          <t>86,88; 93,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88,37; 93,05</t>
+          <t>87,61; 93,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>86,7; 90,03</t>
+          <t>87,6; 92,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,74; 91,74</t>
+          <t>87,71; 92,24</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>90,1%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>92,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>90,49%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,34; 95,02</t>
+          <t>83,41; 93,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,76; 93,65</t>
+          <t>81,87; 93,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,87; 94,03</t>
+          <t>87,52; 94,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>89,05; 94,47</t>
+          <t>88,63; 94,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,25; 93,88</t>
+          <t>87,64; 93,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,62; 93,1</t>
+          <t>86,69; 93,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>84,94%</t>
+          <t>83,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>85,87%</t>
+          <t>85,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>83,24%</t>
+          <t>80,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>85,49%</t>
+          <t>82,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>84,07%</t>
+          <t>81,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,67%</t>
+          <t>84,0%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,71; 87,0</t>
+          <t>80,05; 85,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,95; 88,23</t>
+          <t>81,73; 89,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,37; 84,86</t>
+          <t>77,4; 82,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,16; 87,4</t>
+          <t>78,83; 85,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,56; 85,38</t>
+          <t>79,76; 83,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,05; 87,4</t>
+          <t>81,54; 86,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>84,93%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>86,28%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>83,3%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>85,64%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>84,1%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>85,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>82,63; 86,88</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>83,59; 88,38</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>81,22; 85,12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>83,76; 87,62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>82,46; 85,48</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>84,45; 87,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene acceso a internet con datos de teléfono móvil (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>172081</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>255783</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>189246</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>304061</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>361327</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>559844</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>148975; 189812</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>228063; 280660</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>164757; 209613</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>274752; 335047</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>330687; 393527</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>517987; 599269</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>339.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>514.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>620.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>587920</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>834645</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>645431</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>909398</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1233350</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1744044</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>562868; 608745</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>798839; 863888</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>621265; 666187</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>876076; 936969</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1196556; 1263431</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1695012; 1782635</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>507.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>410597</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>634325</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>487247</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>709243</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>897845</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1343568</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>380099; 428314</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>585827; 666202</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>465361; 504107</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>681751; 729117</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>865312; 925481</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1287183; 1381370</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>671.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>402.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>742.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1413.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>832.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1757272</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1247363</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1675297</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1155594</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3432569</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2402956</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1692486; 1812232</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1190990; 1302469</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1617559; 1725869</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1106307; 1201674</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3353324; 3504511</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2332574; 2474773</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1148.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>995.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1332.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1159.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2480.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2154.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2927870</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2972116</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2997221</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3078296</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5925090</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6050412</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2848537; 2995028</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2879490; 3044416</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2922481; 3062657</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3010679; 3149480</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5809860; 6022667</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5944559; 6155283</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>